--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AE3ED-581F-4073-AD4A-E4A14835F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6B66A-F4F3-4986-AF9A-B2BCB8A52118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
@@ -1075,35 +1075,6 @@
         <v>10</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>441</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6B66A-F4F3-4986-AF9A-B2BCB8A52118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A8011-A1E4-4777-B329-393ADBB16BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -988,93 +988,6 @@
         <v>10</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>433</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>434</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>441</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A8011-A1E4-4777-B329-393ADBB16BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF1928-B8B1-4CDA-B580-A102EDD8376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -452,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -964,30 +964,59 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <v>434</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>441</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF1928-B8B1-4CDA-B580-A102EDD8376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D7F3CB-E6B9-4756-9EC2-BA1382C93DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31455" yWindow="-1890" windowWidth="18255" windowHeight="12060" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -133,6 +133,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,11 +455,9 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -499,8 +500,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>408</v>
+      <c r="A2" s="6">
+        <v>402</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -528,8 +529,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>409</v>
+      <c r="A3" s="6">
+        <v>405</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -557,8 +558,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>411</v>
+      <c r="A4" s="6">
+        <v>406</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -587,7 +588,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -616,7 +617,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -645,7 +646,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -674,7 +675,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -703,7 +704,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -732,7 +733,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -761,7 +762,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -790,7 +791,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -819,7 +820,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -848,7 +849,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -877,7 +878,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -906,7 +907,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -935,7 +936,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -964,7 +965,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -993,30 +994,117 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <v>432</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>433</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>434</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>441</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D7F3CB-E6B9-4756-9EC2-BA1382C93DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF1928-B8B1-4CDA-B580-A102EDD8376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31455" yWindow="-1890" windowWidth="18255" windowHeight="12060" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -133,9 +133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,9 +452,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -500,8 +499,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>402</v>
+      <c r="A2" s="2">
+        <v>408</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -529,8 +528,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>405</v>
+      <c r="A3" s="2">
+        <v>409</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -558,8 +557,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>406</v>
+      <c r="A4" s="2">
+        <v>411</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -588,7 +587,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -617,7 +616,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -646,7 +645,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -675,7 +674,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -704,7 +703,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -733,7 +732,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -762,7 +761,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -791,7 +790,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -820,7 +819,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -849,7 +848,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -878,7 +877,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -907,7 +906,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -936,7 +935,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -965,7 +964,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -994,7 +993,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1018,93 +1017,6 @@
         <v>10</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>433</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>434</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>441</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF1928-B8B1-4CDA-B580-A102EDD8376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A390F-D795-42F6-8F26-E6607C96F169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="-48" windowWidth="22092" windowHeight="10428" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -66,10 +57,10 @@
     <t>WIM</t>
   </si>
   <si>
-    <t>AGBBox</t>
+    <t>q</t>
   </si>
   <si>
-    <t>q</t>
+    <t xml:space="preserve">AGBSlab.Pinned.p1.Mp,AGBSlab.Pinned.p2.Mp,AGBSlab.Pinned.p3.Mp  </t>
   </si>
 </sst>
 </file>
@@ -120,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -133,6 +124,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,16 +446,16 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:I2"/>
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
@@ -499,14 +493,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>408</v>
+      <c r="A2" s="6">
+        <v>402</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -528,14 +522,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>409</v>
+      <c r="A3" s="6">
+        <v>405</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -557,14 +551,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>411</v>
+      <c r="A4" s="6">
+        <v>406</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -587,13 +581,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -616,13 +610,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -645,13 +639,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -674,13 +668,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -703,13 +697,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -732,13 +726,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -761,13 +755,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -790,13 +784,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -819,13 +813,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -848,13 +842,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -877,13 +871,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -906,13 +900,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -935,13 +929,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -964,13 +958,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -993,30 +987,117 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <v>432</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>433</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>434</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>441</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A390F-D795-42F6-8F26-E6607C96F169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C432AC5-5A4C-4355-8F10-828DF3DA64F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-48" windowWidth="22092" windowHeight="10428" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25095" yWindow="-825" windowWidth="22065" windowHeight="14370" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +69,7 @@
     <t>q</t>
   </si>
   <si>
-    <t xml:space="preserve">AGBSlab.Pinned.p1.Mp,AGBSlab.Pinned.p2.Mp,AGBSlab.Pinned.p3.Mp  </t>
+    <t>AGBSlab.Semi</t>
   </si>
 </sst>
 </file>
@@ -449,12 +458,12 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="73.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C432AC5-5A4C-4355-8F10-828DF3DA64F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4508BB1-1351-4216-B270-9498EB660262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25095" yWindow="-825" windowWidth="22065" windowHeight="14370" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>WIM</t>
   </si>
   <si>
-    <t>q</t>
+    <t>AGBBox,AGBTwin,MATSlab.Semi</t>
   </si>
   <si>
-    <t>AGBSlab.Semi</t>
+    <t>qInvestigation</t>
   </si>
 </sst>
 </file>
@@ -457,15 +457,13 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
@@ -506,16 +504,16 @@
         <v>402</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -524,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>9</v>
@@ -535,16 +533,16 @@
         <v>405</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -553,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>9</v>
@@ -564,16 +562,16 @@
         <v>406</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -582,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>9</v>
@@ -593,16 +591,16 @@
         <v>408</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -611,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>9</v>
@@ -622,16 +620,16 @@
         <v>409</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -640,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>9</v>
@@ -651,16 +649,16 @@
         <v>411</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -669,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>9</v>
@@ -680,16 +678,16 @@
         <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -698,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>9</v>
@@ -709,16 +707,16 @@
         <v>413</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -727,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>9</v>
@@ -738,16 +736,16 @@
         <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -756,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>9</v>
@@ -767,16 +765,16 @@
         <v>415</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -785,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>9</v>
@@ -796,16 +794,16 @@
         <v>416</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -814,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>9</v>
@@ -825,16 +823,16 @@
         <v>417</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -843,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>9</v>
@@ -854,16 +852,16 @@
         <v>418</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -872,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
@@ -883,16 +881,16 @@
         <v>421</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -901,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>9</v>
@@ -912,16 +910,16 @@
         <v>422</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -930,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>9</v>
@@ -941,16 +939,16 @@
         <v>423</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -959,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>9</v>
@@ -970,16 +968,16 @@
         <v>431</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -988,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>9</v>
@@ -999,16 +997,16 @@
         <v>432</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1017,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>9</v>
@@ -1028,16 +1026,16 @@
         <v>433</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -1046,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>9</v>
@@ -1057,16 +1055,16 @@
         <v>434</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1075,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>9</v>
@@ -1086,16 +1084,16 @@
         <v>441</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -1104,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>9</v>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4508BB1-1351-4216-B270-9498EB660262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE6285-F908-42AA-8AD7-BAFF548FDED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37440" yWindow="-2505" windowWidth="28800" windowHeight="15375" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>RunDyn</t>
   </si>
@@ -66,10 +66,70 @@
     <t>WIM</t>
   </si>
   <si>
-    <t>AGBBox,AGBTwin,MATSlab.Semi</t>
-  </si>
-  <si>
     <t>qInvestigation</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p3</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p4</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p5</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p6</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p7</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p8</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p9</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p10</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p11</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p12</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p13</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p14</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p15</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p16</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p17</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p18</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p19</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p20</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p21</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p22</t>
+  </si>
+  <si>
+    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p23</t>
   </si>
 </sst>
 </file>
@@ -457,12 +517,14 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
@@ -504,10 +566,10 @@
         <v>402</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>0.2</v>
@@ -533,10 +595,10 @@
         <v>405</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>0.2</v>
@@ -562,10 +624,10 @@
         <v>406</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>0.2</v>
@@ -591,10 +653,10 @@
         <v>408</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>0.2</v>
@@ -620,10 +682,10 @@
         <v>409</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>0.2</v>
@@ -649,10 +711,10 @@
         <v>411</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>0.2</v>
@@ -678,10 +740,10 @@
         <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>0.2</v>
@@ -707,10 +769,10 @@
         <v>413</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>0.2</v>
@@ -736,10 +798,10 @@
         <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>0.2</v>
@@ -765,10 +827,10 @@
         <v>415</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>0.2</v>
@@ -794,10 +856,10 @@
         <v>416</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>0.2</v>
@@ -823,10 +885,10 @@
         <v>417</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>0.2</v>
@@ -852,10 +914,10 @@
         <v>418</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5">
         <v>0.2</v>
@@ -881,10 +943,10 @@
         <v>421</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5">
         <v>0.2</v>
@@ -910,10 +972,10 @@
         <v>422</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
         <v>0.2</v>
@@ -939,10 +1001,10 @@
         <v>423</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5">
         <v>0.2</v>
@@ -968,10 +1030,10 @@
         <v>431</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>0.2</v>
@@ -997,10 +1059,10 @@
         <v>432</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5">
         <v>0.2</v>
@@ -1026,10 +1088,10 @@
         <v>433</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5">
         <v>0.2</v>
@@ -1055,10 +1117,10 @@
         <v>434</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5">
         <v>0.2</v>
@@ -1084,10 +1146,10 @@
         <v>441</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5">
         <v>0.2</v>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE6285-F908-42AA-8AD7-BAFF548FDED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97DDC08-4E68-479D-B0A4-6D0D3E1C8006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37440" yWindow="-2505" windowWidth="28800" windowHeight="15375" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="13">
   <si>
     <t>RunDyn</t>
   </si>
@@ -69,67 +69,10 @@
     <t>qInvestigation</t>
   </si>
   <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p3</t>
+    <t>AGBBox,AGBTwin.Standard</t>
   </si>
   <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p4</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p5</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p6</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p7</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p8</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p9</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p10</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p11</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p12</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p13</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p14</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p15</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p16</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p17</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p18</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p19</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p20</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p21</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p22</t>
-  </si>
-  <si>
-    <t>AGBBox,AGBTwin.Standard,MATSlab.Semi.p23</t>
+    <t>MATSlab.Semi.p1.Mp,MATSlab.Semi.p2.Mp,MATSlab.Semi.p3.Mp</t>
   </si>
 </sst>
 </file>
@@ -515,16 +458,14 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
@@ -566,7 +507,7 @@
         <v>402</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -584,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>9</v>
@@ -613,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>9</v>
@@ -624,7 +565,7 @@
         <v>406</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -642,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>9</v>
@@ -653,7 +594,7 @@
         <v>408</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -671,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>9</v>
@@ -682,7 +623,7 @@
         <v>409</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -700,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>9</v>
@@ -711,7 +652,7 @@
         <v>411</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -729,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>9</v>
@@ -740,7 +681,7 @@
         <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -758,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>9</v>
@@ -769,7 +710,7 @@
         <v>413</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -787,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>9</v>
@@ -798,7 +739,7 @@
         <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -816,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>9</v>
@@ -827,7 +768,7 @@
         <v>415</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -845,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>9</v>
@@ -856,7 +797,7 @@
         <v>416</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -874,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>9</v>
@@ -885,7 +826,7 @@
         <v>417</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -903,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>9</v>
@@ -914,7 +855,7 @@
         <v>418</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -932,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
@@ -943,7 +884,7 @@
         <v>421</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -961,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>9</v>
@@ -972,7 +913,7 @@
         <v>422</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
@@ -990,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>9</v>
@@ -1001,7 +942,7 @@
         <v>423</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
@@ -1019,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>9</v>
@@ -1030,7 +971,7 @@
         <v>431</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
@@ -1048,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>9</v>
@@ -1059,7 +1000,7 @@
         <v>432</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -1077,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>9</v>
@@ -1088,7 +1029,7 @@
         <v>433</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
@@ -1106,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>9</v>
@@ -1117,7 +1058,7 @@
         <v>434</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
@@ -1135,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>9</v>
@@ -1146,7 +1087,7 @@
         <v>441</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
@@ -1164,9 +1105,618 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>402</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>405</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>406</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>408</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>409</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>10</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>411</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>412</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>413</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>10</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>414</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>415</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>10</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>416</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>417</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>418</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>10</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>421</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>422</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>10</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>423</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>10</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>431</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>432</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>433</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>10</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>434</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>10</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>441</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>10</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97DDC08-4E68-479D-B0A4-6D0D3E1C8006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51337100-13F1-46FD-9EBE-77040C249A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,9 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -503,8 +505,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>402</v>
+      <c r="A2" s="2">
+        <v>432</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -532,8 +534,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>405</v>
+      <c r="A3" s="2">
+        <v>433</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -561,8 +563,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>406</v>
+      <c r="A4" s="2">
+        <v>434</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -591,7 +593,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -996,8 +998,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>432</v>
+      <c r="A19" s="6">
+        <v>402</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1025,8 +1027,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>433</v>
+      <c r="A20" s="6">
+        <v>405</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
@@ -1054,8 +1056,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>434</v>
+      <c r="A21" s="6">
+        <v>406</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -1084,7 +1086,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>12</v>
@@ -1112,8 +1114,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>402</v>
+      <c r="A23" s="2">
+        <v>432</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
@@ -1141,8 +1143,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>405</v>
+      <c r="A24" s="2">
+        <v>433</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
@@ -1170,8 +1172,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>406</v>
+      <c r="A25" s="2">
+        <v>434</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>
@@ -1200,7 +1202,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
@@ -1605,8 +1607,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>432</v>
+      <c r="A40" s="6">
+        <v>402</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>11</v>
@@ -1634,8 +1636,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>433</v>
+      <c r="A41" s="6">
+        <v>405</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>11</v>
@@ -1663,8 +1665,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>434</v>
+      <c r="A42" s="6">
+        <v>406</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>11</v>
@@ -1693,7 +1695,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>11</v>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6BDF9B-70A8-4667-B85C-387A58923611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BEEA5-52F8-4523-B95B-E83B6D061B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29430" yWindow="-1950" windowWidth="26400" windowHeight="17940" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21840" yWindow="2490" windowWidth="16575" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
   <si>
     <t>RunDyn</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>MATSlabShort.Semi</t>
+  </si>
+  <si>
+    <t>MATSlabLong.Semi</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +499,10 @@
         <v>432</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>

--- a/Input/VBWIMqInput.xlsx
+++ b/Input/VBWIMqInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BEEA5-52F8-4523-B95B-E83B6D061B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85DB3E8-9FC1-4974-87B1-D70629FE2644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21840" yWindow="2490" windowWidth="16575" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>RunDyn</t>
   </si>
@@ -66,7 +66,13 @@
     <t>MATSlabShort.Semi</t>
   </si>
   <si>
-    <t>MATSlabLong.Semi</t>
+    <t>AGBBox.Mn.S30</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>ClassType</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -133,6 +139,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,23 +461,24 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
     <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -493,16 +503,17 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>432</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -520,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>433</v>
       </c>
@@ -546,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>434</v>
       </c>
@@ -572,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>441</v>
       </c>
@@ -598,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>409</v>
       </c>
@@ -624,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>411</v>
       </c>
@@ -650,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>412</v>
       </c>
@@ -676,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>413</v>
       </c>
@@ -702,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>414</v>
       </c>
@@ -728,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>415</v>
       </c>
@@ -754,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>416</v>
       </c>
@@ -780,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>417</v>
       </c>
@@ -806,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>418</v>
       </c>
@@ -832,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>421</v>
       </c>
@@ -858,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>422</v>
       </c>
@@ -884,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>423</v>
       </c>
@@ -910,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>431</v>
       </c>
@@ -936,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>402</v>
       </c>
@@ -962,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>405</v>
       </c>
@@ -988,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>406</v>
       </c>
@@ -1014,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>408</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1050,7 +1061,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1060,7 +1071,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1070,27 +1081,65 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>441</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1100,7 +1149,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1110,7 +1159,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1120,7 +1169,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1130,7 +1179,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
